--- a/par_nuc_ap.xlsx
+++ b/par_nuc_ap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takashinakamura/Dropbox/物理学科/25-素核准教授人事/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/145afaf969fa1ae9/ドキュメント/就職活動関係/東京科学大-APro-2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3D6DA8-919A-E94C-BDDF-0D160CFD75AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{DA3D6DA8-919A-E94C-BDDF-0D160CFD75AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80680989-E679-41A4-BC31-DC2E68710B26}"/>
   <bookViews>
-    <workbookView xWindow="30500" yWindow="3460" windowWidth="28800" windowHeight="16480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3495" windowWidth="28530" windowHeight="18105" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="89">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1"/>
@@ -700,15 +700,193 @@
 Age (as of April 1, 2026)</t>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>内山　雄祐</t>
+    <rPh sb="0" eb="2">
+      <t>ウチヤマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ユウスケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高エネルギー加速器研究機構素粒子原子核研究所
+助教</t>
+    <rPh sb="0" eb="1">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="6" eb="19">
+      <t>カソクキケンキュウキコウソリュウシゲンシカク</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ケンキュウジョ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジョキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>博士（理学)
+東京大学
+2010年3月</t>
+    <rPh sb="0" eb="2">
+      <t>ハカセ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>リガク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウキョウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>素粒子物理学実験の研究</t>
+    <rPh sb="0" eb="6">
+      <t>ソリュウシブツリガク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジッケン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケンキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1982年3月20日43才</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16
+Scopus</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12,200千円</t>
+    <rPh sb="5" eb="7">
+      <t>センエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. 科研費 新学術領域研究（ニュートリノで拓く素粒子と宇宙）公募研究, 「極低物質量・高計数率飛跡検出器で挑む荷電レプトンフレーバーの破れの探索」, 2021--2022年度, 6,370千円</t>
+    <rPh sb="3" eb="6">
+      <t>カケンヒ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ネンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. 日本物理学会若手奨励賞
+2. 高エネルギー物理学奨励賞
+3. J-PARC MLF S型課題審査委員</t>
+    <rPh sb="3" eb="9">
+      <t>ニホンブツリガッカイ</t>
+    </rPh>
+    <rPh sb="9" eb="14">
+      <t>ワカテショウレイショウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="24" eb="30">
+      <t>ブツリガクショウレイショウ</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>ガタカダイ</t>
+    </rPh>
+    <rPh sb="49" eb="53">
+      <t>シンサイイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>森　俊則
+（東京大学）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Stefan Ritt
+(Paul Scherrer Institut)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Alessandro M. Baldini
+(INFN Pisa)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三原　智
+（高エネルギー加速器研究機構）</t>
+    <rPh sb="0" eb="2">
+      <t>ミハラ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サトシ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="12" eb="19">
+      <t>カソクキケンキュウキコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>森　俊則
+（東京大学）</t>
+    <rPh sb="0" eb="1">
+      <t>モリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トシノリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウキョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ダイガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1,895
+Scopus</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="[$€-2]\ #,##0;[Red]\-[$€-2]\ #,##0"/>
+    <numFmt numFmtId="181" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1112,9 +1290,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1156,6 +1331,9 @@
     <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1515,33 +1693,33 @@
   <dimension ref="A1:W47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="16.1640625" customWidth="1"/>
-    <col min="11" max="11" width="14.1640625" customWidth="1"/>
-    <col min="12" max="12" width="11.83203125" customWidth="1"/>
-    <col min="13" max="13" width="24.6640625" customWidth="1"/>
-    <col min="14" max="14" width="34.1640625" customWidth="1"/>
-    <col min="15" max="15" width="24.6640625" customWidth="1"/>
-    <col min="16" max="16" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="21.125" customWidth="1"/>
+    <col min="5" max="5" width="18.125" customWidth="1"/>
+    <col min="6" max="6" width="7.375" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="8" max="8" width="10.625" customWidth="1"/>
+    <col min="9" max="9" width="13.625" customWidth="1"/>
+    <col min="10" max="10" width="16.125" customWidth="1"/>
+    <col min="11" max="11" width="14.125" customWidth="1"/>
+    <col min="12" max="12" width="11.875" customWidth="1"/>
+    <col min="13" max="13" width="24.625" customWidth="1"/>
+    <col min="14" max="14" width="34.125" customWidth="1"/>
+    <col min="15" max="15" width="24.625" customWidth="1"/>
+    <col min="16" max="16" width="11.125" customWidth="1"/>
     <col min="17" max="18" width="15" customWidth="1"/>
-    <col min="19" max="21" width="11.1640625" customWidth="1"/>
-    <col min="22" max="22" width="12.6640625" customWidth="1"/>
+    <col min="19" max="21" width="11.125" customWidth="1"/>
+    <col min="22" max="22" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="22">
+    <row r="1" spans="1:23" ht="21" x14ac:dyDescent="0.15">
       <c r="B1" s="16" t="s">
         <v>39</v>
       </c>
@@ -1555,7 +1733,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="16" thickBot="1">
+    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
@@ -1567,7 +1745,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="77.25" customHeight="1">
+    <row r="3" spans="1:23" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="14"/>
       <c r="B3" s="17" t="s">
         <v>7</v>
@@ -1633,7 +1811,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="102">
+    <row r="4" spans="1:23" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A4" s="14"/>
       <c r="B4" s="19" t="s">
         <v>0</v>
@@ -1699,7 +1877,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="93" customHeight="1">
+    <row r="5" spans="1:23" ht="93" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
         <v>28</v>
       </c>
@@ -1765,7 +1943,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="93" customHeight="1">
+    <row r="6" spans="1:23" ht="93" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
         <v>29</v>
       </c>
@@ -1831,31 +2009,71 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="120.75" customHeight="1" thickBot="1">
-      <c r="A7" s="28"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="26"/>
+    <row r="7" spans="1:23" ht="120.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="27"/>
+      <c r="B7" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="26">
+        <v>38</v>
+      </c>
+      <c r="I7" s="26">
+        <v>10</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" s="26">
+        <v>0</v>
+      </c>
+      <c r="M7" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="N7" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" s="26" t="s">
+        <v>82</v>
+      </c>
       <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="27"/>
-    </row>
-    <row r="8" spans="1:23" ht="88" customHeight="1">
+      <c r="Q7" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="R7" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="S7" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="T7" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="U7" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="V7" s="43">
+        <v>46113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="87.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
@@ -1870,10 +2088,10 @@
       <c r="L8" s="6"/>
       <c r="M8" s="1"/>
       <c r="N8" s="2"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-    </row>
-    <row r="9" spans="1:23" ht="70" customHeight="1">
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+    </row>
+    <row r="9" spans="1:23" ht="69.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
@@ -1889,7 +2107,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:23" ht="70" customHeight="1">
+    <row r="10" spans="1:23" ht="69.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -1902,15 +2120,15 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="33"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="29"/>
-    </row>
-    <row r="11" spans="1:23" ht="70" customHeight="1">
+      <c r="M10" s="36"/>
+      <c r="N10" s="32"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+    </row>
+    <row r="11" spans="1:23" ht="69.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -1924,11 +2142,11 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="33"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="29"/>
-    </row>
-    <row r="12" spans="1:23" ht="70" customHeight="1">
+      <c r="N11" s="32"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="28"/>
+    </row>
+    <row r="12" spans="1:23" ht="69.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
@@ -1942,12 +2160,12 @@
       <c r="K12" s="22"/>
       <c r="L12" s="1"/>
       <c r="M12" s="15"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-    </row>
-    <row r="13" spans="1:23" ht="71" customHeight="1">
+      <c r="N12" s="32"/>
+      <c r="O12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+    </row>
+    <row r="13" spans="1:23" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -1961,31 +2179,31 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="29"/>
-      <c r="S13" s="29"/>
-    </row>
-    <row r="14" spans="1:23" ht="98" customHeight="1">
+      <c r="N13" s="32"/>
+      <c r="O13" s="28"/>
+      <c r="S13" s="28"/>
+    </row>
+    <row r="14" spans="1:23" ht="98.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
       <c r="D14" s="23"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="32"/>
+      <c r="G14" s="31"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="22"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="V14" s="29"/>
-    </row>
-    <row r="15" spans="1:23" ht="79" customHeight="1">
+      <c r="M14" s="36"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="V14" s="28"/>
+    </row>
+    <row r="15" spans="1:23" ht="78.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
@@ -1998,15 +2216,15 @@
       <c r="J15" s="1"/>
       <c r="K15" s="22"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="29"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="29"/>
-      <c r="T15" s="29"/>
-      <c r="V15" s="29"/>
-    </row>
-    <row r="16" spans="1:23" ht="79" customHeight="1">
+      <c r="M15" s="37"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="28"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="V15" s="28"/>
+    </row>
+    <row r="16" spans="1:23" ht="78.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -2020,16 +2238,16 @@
       <c r="K16" s="22"/>
       <c r="L16" s="1"/>
       <c r="M16" s="15"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="29"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="43"/>
-    </row>
-    <row r="17" spans="1:22" ht="79" customHeight="1">
+      <c r="N16" s="32"/>
+      <c r="O16" s="28"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="42"/>
+    </row>
+    <row r="17" spans="1:22" ht="78.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
@@ -2044,14 +2262,14 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="23"/>
-      <c r="O17" s="29"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-      <c r="V17" s="29"/>
-    </row>
-    <row r="18" spans="1:22" ht="79" customHeight="1">
+      <c r="O17" s="28"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="V17" s="28"/>
+    </row>
+    <row r="18" spans="1:22" ht="78.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
@@ -2065,15 +2283,15 @@
       <c r="K18" s="22"/>
       <c r="L18" s="1"/>
       <c r="M18" s="15"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="29"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="V18" s="29"/>
-    </row>
-    <row r="19" spans="1:22" ht="79" customHeight="1">
+      <c r="N18" s="32"/>
+      <c r="O18" s="28"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="V18" s="28"/>
+    </row>
+    <row r="19" spans="1:22" ht="78.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -2087,15 +2305,15 @@
       <c r="K19" s="22"/>
       <c r="L19" s="1"/>
       <c r="M19" s="15"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="29"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="V19" s="42"/>
-    </row>
-    <row r="20" spans="1:22" ht="79" customHeight="1">
+      <c r="N19" s="32"/>
+      <c r="O19" s="28"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="V19" s="41"/>
+    </row>
+    <row r="20" spans="1:22" ht="78.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -2109,15 +2327,15 @@
       <c r="K20" s="22"/>
       <c r="L20" s="1"/>
       <c r="M20" s="15"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="29"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="V20" s="29"/>
-    </row>
-    <row r="21" spans="1:22" ht="79" customHeight="1">
+      <c r="N20" s="32"/>
+      <c r="O20" s="28"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="V20" s="28"/>
+    </row>
+    <row r="21" spans="1:22" ht="78.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
@@ -2131,15 +2349,15 @@
       <c r="K21" s="22"/>
       <c r="L21" s="1"/>
       <c r="M21" s="15"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="29"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
-      <c r="V21" s="29"/>
-    </row>
-    <row r="22" spans="1:22" ht="79" customHeight="1">
+      <c r="N21" s="32"/>
+      <c r="O21" s="28"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="V21" s="28"/>
+    </row>
+    <row r="22" spans="1:22" ht="78.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -2153,15 +2371,15 @@
       <c r="K22" s="22"/>
       <c r="L22" s="1"/>
       <c r="M22" s="15"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="29"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="29"/>
-      <c r="V22" s="29"/>
-    </row>
-    <row r="23" spans="1:22" ht="79" customHeight="1">
+      <c r="N22" s="32"/>
+      <c r="O22" s="28"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+      <c r="V22" s="28"/>
+    </row>
+    <row r="23" spans="1:22" ht="78.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -2175,15 +2393,15 @@
       <c r="K23" s="22"/>
       <c r="L23" s="1"/>
       <c r="M23" s="15"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="29"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
-      <c r="V23" s="29"/>
-    </row>
-    <row r="24" spans="1:22" ht="70" customHeight="1">
+      <c r="N23" s="32"/>
+      <c r="O23" s="28"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="28"/>
+      <c r="V23" s="28"/>
+    </row>
+    <row r="24" spans="1:22" ht="69.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -2197,15 +2415,15 @@
       <c r="K24" s="22"/>
       <c r="L24" s="1"/>
       <c r="M24" s="15"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="29"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="V24" s="29"/>
-    </row>
-    <row r="25" spans="1:22" ht="70" customHeight="1">
+      <c r="N24" s="32"/>
+      <c r="O24" s="28"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28"/>
+      <c r="V24" s="28"/>
+    </row>
+    <row r="25" spans="1:22" ht="69.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -2219,15 +2437,15 @@
       <c r="K25" s="22"/>
       <c r="L25" s="1"/>
       <c r="M25" s="15"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="29"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="V25" s="42"/>
-    </row>
-    <row r="26" spans="1:22" ht="70" customHeight="1">
+      <c r="N25" s="32"/>
+      <c r="O25" s="28"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="V25" s="41"/>
+    </row>
+    <row r="26" spans="1:22" ht="69.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -2241,15 +2459,15 @@
       <c r="K26" s="22"/>
       <c r="L26" s="1"/>
       <c r="M26" s="15"/>
-      <c r="N26" s="33"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
-      <c r="V26" s="29"/>
-    </row>
-    <row r="27" spans="1:22">
+      <c r="N26" s="32"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="28"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
@@ -2262,7 +2480,7 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:22" ht="22">
+    <row r="28" spans="1:22" ht="21" x14ac:dyDescent="0.15">
       <c r="B28" s="7" t="s">
         <v>1</v>
       </c>
@@ -2276,27 +2494,27 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="M28" s="39" t="s">
+      <c r="M28" s="38" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
-      <c r="M29" s="39" t="s">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="M29" s="38" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
-      <c r="M30" s="40" t="s">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="M30" s="39" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
-      <c r="M31" s="39" t="s">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="M31" s="38" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="11:11">
-      <c r="K47" s="34"/>
+    <row r="47" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K47" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
